--- a/biology/Zoologie/Haematobia_exigua/Haematobia_exigua.xlsx
+++ b/biology/Zoologie/Haematobia_exigua/Haematobia_exigua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haematobia exigua (appelée Buffalo Fly en Australie) est une espèce d'insectes diptères nuisibles, une mouche de la famille des Muscidae.
 On la trouve sur tout le continent australien en dehors de l'Australie occidentale.
